--- a/CSVtoSomethingElse/bin/Debug/csvto.xlsx
+++ b/CSVtoSomethingElse/bin/Debug/csvto.xlsx
@@ -12,42 +12,120 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Mid Bonus</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>"$2,000"</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>"""zippo"""</t>
-  </si>
-  <si>
-    <t>Total Bonuses</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>"$5,000"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>REVIEW_DATE</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>DISCOUNTED_PRICE</t>
+  </si>
+  <si>
+    <t>1985/01/21</t>
+  </si>
+  <si>
+    <t>Douglas Adams</t>
+  </si>
+  <si>
+    <t>0345391802</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>1990/01/12</t>
+  </si>
+  <si>
+    <t>Douglas Hofstadter</t>
+  </si>
+  <si>
+    <t>0465026567</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>1998/07/15</t>
+  </si>
+  <si>
+    <t>Timothy "The Parser" Campbell</t>
+  </si>
+  <si>
+    <t>0968411304</t>
+  </si>
+  <si>
+    <t>18.99</t>
+  </si>
+  <si>
+    <t>1999/12/03</t>
+  </si>
+  <si>
+    <t>Richard Friedman</t>
+  </si>
+  <si>
+    <t>0060630353</t>
+  </si>
+  <si>
+    <t>2001/09/19</t>
+  </si>
+  <si>
+    <t>Karen Armstrong</t>
+  </si>
+  <si>
+    <t>0345384563</t>
+  </si>
+  <si>
+    <t>2002/06/23</t>
+  </si>
+  <si>
+    <t>David Jones</t>
+  </si>
+  <si>
+    <t>0198504691</t>
+  </si>
+  <si>
+    <t>Julian Jaynes</t>
+  </si>
+  <si>
+    <t>0618057072</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>2003/09/30</t>
+  </si>
+  <si>
+    <t>Scott Adams</t>
+  </si>
+  <si>
+    <t>0740721909</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>2004/10/04</t>
+  </si>
+  <si>
+    <t>Benjamin Radcliff</t>
+  </si>
+  <si>
+    <t>0804818088</t>
+  </si>
+  <si>
+    <t>Randel Helms</t>
+  </si>
+  <si>
+    <t>0879755725</t>
+  </si>
+  <si>
+    <t>4.50</t>
   </si>
 </sst>
 </file>
@@ -93,7 +171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -109,38 +187,148 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
